--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmin\DSA\Luv DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE59643C-D114-4C45-B9B3-FB312E5AED9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1272,9 +1266,6 @@
     <t>Count all subsequences having product less than K</t>
   </si>
   <si>
-    <t>Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
     <t>Maximum subsequence sum such that no three are consecutive</t>
   </si>
   <si>
@@ -1426,6 +1417,12 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>__________</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one+++++++++++++++</t>
   </si>
 </sst>
 </file>
@@ -1855,27 +1852,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B419" sqref="B419"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -6226,7 +6223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" spans="1:4" ht="21">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6237,7 +6234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" spans="1:4" ht="21">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6248,7 +6245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" spans="1:4" ht="21">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6259,7 +6256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" spans="1:4" ht="21">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" spans="1:4" ht="21">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6281,7 +6278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" spans="1:4" ht="21">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6292,7 +6289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" spans="1:4" ht="21">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6303,7 +6300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" spans="1:4" ht="21">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6314,7 +6311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row r="425" spans="1:4" ht="21">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6325,7 +6322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" spans="1:4" ht="21">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6336,7 +6333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" spans="1:4" ht="21">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6347,7 +6344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row r="428" spans="1:4" ht="21">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6358,7 +6355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" spans="1:4" ht="21">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6369,34 +6366,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" spans="1:4" ht="21">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" ht="21">
+      <c r="D430" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="21">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" spans="1:4" ht="21">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6407,7 +6407,7 @@
         <v>393</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6418,7 +6418,7 @@
         <v>393</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6429,7 +6429,7 @@
         <v>393</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6440,7 +6440,7 @@
         <v>393</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6451,7 +6451,7 @@
         <v>393</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6462,7 +6462,7 @@
         <v>393</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6473,7 +6473,7 @@
         <v>393</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6484,7 +6484,7 @@
         <v>393</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6495,7 +6495,7 @@
         <v>393</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6506,7 +6506,7 @@
         <v>393</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6517,7 +6517,7 @@
         <v>393</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6528,7 +6528,7 @@
         <v>393</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6539,7 +6539,7 @@
         <v>393</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6550,7 +6550,7 @@
         <v>393</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6561,7 +6561,7 @@
         <v>393</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6572,7 +6572,7 @@
         <v>393</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6583,7 +6583,7 @@
         <v>393</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6594,7 +6594,7 @@
         <v>393</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6605,7 +6605,7 @@
         <v>393</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6616,7 +6616,7 @@
         <v>393</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6627,7 +6627,7 @@
         <v>393</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6638,7 +6638,7 @@
         <v>393</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6649,7 +6649,7 @@
         <v>393</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6660,7 +6660,7 @@
         <v>393</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6671,7 +6671,7 @@
         <v>393</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6682,7 +6682,7 @@
         <v>393</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6693,7 +6693,7 @@
         <v>393</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6704,7 +6704,7 @@
         <v>393</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6715,7 +6715,7 @@
         <v>393</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6726,7 +6726,7 @@
         <v>393</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6737,7 +6737,7 @@
         <v>393</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6748,7 +6748,7 @@
         <v>393</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6759,7 +6759,7 @@
         <v>393</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6770,7 +6770,7 @@
         <v>393</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6781,7 +6781,7 @@
         <v>393</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6792,7 +6792,7 @@
         <v>393</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6803,7 +6803,7 @@
         <v>393</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -6820,10 +6820,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -6831,10 +6831,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -6842,10 +6842,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -6853,10 +6853,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -6864,10 +6864,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -6875,10 +6875,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -6886,10 +6886,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6897,10 +6897,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -6908,10 +6908,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -6919,10 +6919,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7324,7 +7324,7 @@
     <hyperlink ref="B427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
     <hyperlink ref="B428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
     <hyperlink ref="B429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B430" r:id="rId395" display="Longest subsequence such that difference between adjacent is one" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
     <hyperlink ref="B431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
     <hyperlink ref="B432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
     <hyperlink ref="B433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
